--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed5/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.566</v>
+        <v>-13.01</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.07</v>
+        <v>-13.318</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.921999999999999</v>
+        <v>-8.001000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,10 +553,10 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.762</v>
+        <v>-13.138</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.898000000000001</v>
+        <v>-7.519</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.35</v>
+        <v>-12.672</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.558</v>
+        <v>-7.858</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.152</v>
+        <v>-21.803</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.3</v>
+        <v>-21.807</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.332</v>
+        <v>-13.232</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.908</v>
+        <v>-12.081</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.37</v>
+        <v>-21.018</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -760,7 +760,7 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.800000000000001</v>
+        <v>-7.790999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.454000000000001</v>
+        <v>-7.858</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-13.05</v>
+        <v>-13.005</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.842000000000001</v>
+        <v>-8.069999999999999</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.396000000000001</v>
+        <v>-7.861</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
